--- a/Ltest Data Template.xlsx
+++ b/Ltest Data Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="11">
   <si>
     <t>Participant Number</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -474,14 +477,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -621,7 +625,10 @@
       <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6:L19" ca="1" si="0">RAND()*-6+4</f>
+        <v>-0.94003246299628795</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -655,7 +662,10 @@
       <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3580208197308572</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -689,7 +699,10 @@
       <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17136832202002283</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -723,7 +736,10 @@
       <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49833182777765339</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -757,7 +773,10 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7150587158121513</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -791,7 +810,10 @@
       <c r="K11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49039461029696074</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -825,7 +847,10 @@
       <c r="K12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3774141462395697</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -859,7 +884,10 @@
       <c r="K13" s="2">
         <v>4</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4598846806565771</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -893,7 +921,10 @@
       <c r="K14" s="2">
         <v>5</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0701097081607713E-2</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -927,7 +958,10 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6971645684157162</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -961,7 +995,10 @@
       <c r="K16" s="2">
         <v>2</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6824392242846602</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -989,7 +1026,10 @@
       <c r="K17" s="2">
         <v>3</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.92208041317222911</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1017,7 +1057,10 @@
       <c r="K18" s="2">
         <v>4</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0505449486455314</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1051,7 +1094,10 @@
       <c r="K19" s="2">
         <v>5</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22933201946072446</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1195,7 +1241,10 @@
       <c r="K24" s="2">
         <v>2</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5">
+        <f t="shared" ref="L24:L37" ca="1" si="1">RAND()*-6+4</f>
+        <v>2.3289679133050685</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -1229,7 +1278,10 @@
       <c r="K25" s="2">
         <v>3</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9874388677730992</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -1263,7 +1315,10 @@
       <c r="K26" s="2">
         <v>4</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.385670849393982</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1297,7 +1352,10 @@
       <c r="K27" s="2">
         <v>5</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3300678408771369</v>
+      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -1331,7 +1389,10 @@
       <c r="K28" s="2">
         <v>1</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9512652319928261</v>
+      </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -1365,7 +1426,10 @@
       <c r="K29" s="2">
         <v>2</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1632050055890506</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -1399,7 +1463,10 @@
       <c r="K30" s="2">
         <v>3</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57368879930661798</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -1433,7 +1500,10 @@
       <c r="K31" s="2">
         <v>4</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.10891646402550847</v>
+      </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -1467,7 +1537,10 @@
       <c r="K32" s="2">
         <v>5</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3739249505304651</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -1501,7 +1574,10 @@
       <c r="K33" s="2">
         <v>1</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3409260216847487</v>
+      </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -1535,7 +1611,10 @@
       <c r="K34" s="2">
         <v>2</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5494118049704673</v>
+      </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -1569,7 +1648,10 @@
       <c r="K35" s="2">
         <v>3</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.609174456672811</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -1603,7 +1685,10 @@
       <c r="K36" s="2">
         <v>4</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.8222120670943145</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -1637,7 +1722,10 @@
       <c r="K37" s="2">
         <v>5</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="L37" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8254059960101356</v>
+      </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -1727,10 +1815,18 @@
       <c r="D41" s="5">
         <v>0</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="E41" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3</v>
+      </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
@@ -1752,18 +1848,31 @@
       <c r="C42" s="2">
         <v>2</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="D42" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1.3</v>
+      </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>2</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="5">
+        <f t="shared" ref="L42:L55" ca="1" si="2">RAND()*-6+4</f>
+        <v>2.0394744899532835</v>
+      </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -1776,18 +1885,31 @@
       <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="D43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1.2</v>
+      </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
         <v>3</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9663024907497557</v>
+      </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -1800,18 +1922,31 @@
       <c r="C44" s="2">
         <v>4</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="D44" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E44" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="F44" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H44" s="5">
+        <v>3.2</v>
+      </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2">
         <v>4</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0796469833829461</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -1824,18 +1959,31 @@
       <c r="C45" s="2">
         <v>5</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="D45" s="5">
+        <v>-1.7</v>
+      </c>
+      <c r="E45" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="H45" s="5">
+        <v>-2.7</v>
+      </c>
       <c r="J45" s="2">
         <v>1</v>
       </c>
       <c r="K45" s="2">
         <v>5</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4077936093158785</v>
+      </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -1848,18 +1996,31 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="D46" s="5">
+        <v>-3.3</v>
+      </c>
+      <c r="E46" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="F46" s="5">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="H46" s="5">
+        <v>-0.2</v>
+      </c>
       <c r="J46" s="2">
         <v>2</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5853550997351338</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -1872,18 +2033,31 @@
       <c r="C47" s="2">
         <v>2</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="D47" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="E47" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>-3.1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.9</v>
+      </c>
       <c r="J47" s="2">
         <v>2</v>
       </c>
       <c r="K47" s="2">
         <v>2</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.8654160909961899</v>
+      </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -1896,18 +2070,31 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="D48" s="5">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="E48" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3.6</v>
+      </c>
       <c r="J48" s="2">
         <v>2</v>
       </c>
       <c r="K48" s="2">
         <v>3</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6186998691033727</v>
+      </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -1920,18 +2107,31 @@
       <c r="C49" s="2">
         <v>4</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="D49" s="5">
+        <v>-1.3</v>
+      </c>
+      <c r="E49" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2.5</v>
+      </c>
       <c r="J49" s="2">
         <v>2</v>
       </c>
       <c r="K49" s="2">
         <v>4</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1071037028234629</v>
+      </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -1944,18 +2144,34 @@
       <c r="C50" s="2">
         <v>5</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="D50" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="F50" s="5">
+        <v>-4</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
       <c r="J50" s="2">
         <v>2</v>
       </c>
       <c r="K50" s="2">
         <v>5</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="L50" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3530001657443211</v>
+      </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -1968,18 +2184,31 @@
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="D51" s="5">
+        <v>-4</v>
+      </c>
+      <c r="E51" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H51" s="5">
+        <v>-2.4</v>
+      </c>
       <c r="J51" s="2">
         <v>3</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.7053712530684608</v>
+      </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -1992,18 +2221,31 @@
       <c r="C52" s="2">
         <v>2</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="D52" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="G52" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>7</v>
+      </c>
       <c r="J52" s="2">
         <v>3</v>
       </c>
       <c r="K52" s="2">
         <v>2</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4388151102100366</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -2016,18 +2258,34 @@
       <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="D53" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="E53" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F53" s="5">
+        <v>-5.9</v>
+      </c>
+      <c r="G53" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="H53" s="5">
+        <v>-1.2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
       <c r="J53" s="2">
         <v>3</v>
       </c>
       <c r="K53" s="2">
         <v>3</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.6280210566798363</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -2040,18 +2298,31 @@
       <c r="C54" s="2">
         <v>4</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="D54" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="F54" s="5">
+        <v>-2.6</v>
+      </c>
+      <c r="G54" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="H54" s="5">
+        <v>-1</v>
+      </c>
       <c r="J54" s="2">
         <v>3</v>
       </c>
       <c r="K54" s="2">
         <v>4</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="L54" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.719990781071985</v>
+      </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -2064,18 +2335,31 @@
       <c r="C55" s="2">
         <v>5</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="D55" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F55" s="5">
+        <v>-2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H55" s="5">
+        <v>3.8</v>
+      </c>
       <c r="J55" s="2">
         <v>3</v>
       </c>
       <c r="K55" s="2">
         <v>5</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="L55" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0079899493897129</v>
+      </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -2165,10 +2449,18 @@
       <c r="D59" s="5">
         <v>0</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="E59" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3</v>
+      </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
@@ -2190,18 +2482,31 @@
       <c r="C60" s="2">
         <v>2</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+      <c r="D60" s="5">
+        <v>-5.3</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1.4</v>
+      </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
       <c r="K60" s="2">
         <v>2</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="L60" s="5">
+        <f t="shared" ref="L60:L73" ca="1" si="3">RAND()*-6+4</f>
+        <v>-1.2555962491826991</v>
+      </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -2214,18 +2519,31 @@
       <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="D61" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E61" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3.4</v>
+      </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2">
         <v>3</v>
       </c>
-      <c r="L61" s="5"/>
+      <c r="L61" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2431156169271258</v>
+      </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -2238,18 +2556,31 @@
       <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="D62" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E62" s="5">
+        <v>19</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1.2</v>
+      </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
       <c r="K62" s="2">
         <v>4</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.0617602562718513</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -2262,18 +2593,31 @@
       <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="D63" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="E63" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="F63" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1.2</v>
+      </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="2">
         <v>5</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5460787823734505</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -2286,18 +2630,31 @@
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="D64" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="E64" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="G64" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="J64" s="2">
         <v>2</v>
       </c>
       <c r="K64" s="2">
         <v>1</v>
       </c>
-      <c r="L64" s="5"/>
+      <c r="L64" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6107263811188126</v>
+      </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -2310,18 +2667,31 @@
       <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="D65" s="5">
+        <v>-5.8</v>
+      </c>
+      <c r="E65" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H65" s="5">
+        <v>-0.4</v>
+      </c>
       <c r="J65" s="2">
         <v>2</v>
       </c>
       <c r="K65" s="2">
         <v>2</v>
       </c>
-      <c r="L65" s="5"/>
+      <c r="L65" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.9744468868440084</v>
+      </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -2334,18 +2704,31 @@
       <c r="C66" s="2">
         <v>3</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+      <c r="D66" s="5">
+        <v>-2.46</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="F66" s="5">
+        <v>-2</v>
+      </c>
+      <c r="G66" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>5.7</v>
+      </c>
       <c r="J66" s="2">
         <v>2</v>
       </c>
       <c r="K66" s="2">
         <v>3</v>
       </c>
-      <c r="L66" s="5"/>
+      <c r="L66" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.7761441124945248</v>
+      </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -2369,7 +2752,10 @@
       <c r="K67" s="2">
         <v>4</v>
       </c>
-      <c r="L67" s="5"/>
+      <c r="L67" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1433087226226348</v>
+      </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -2393,7 +2779,10 @@
       <c r="K68" s="2">
         <v>5</v>
       </c>
-      <c r="L68" s="5"/>
+      <c r="L68" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9163945501886039</v>
+      </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -2417,7 +2806,10 @@
       <c r="K69" s="2">
         <v>1</v>
       </c>
-      <c r="L69" s="5"/>
+      <c r="L69" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.9291776555601938</v>
+      </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -2441,7 +2833,10 @@
       <c r="K70" s="2">
         <v>2</v>
       </c>
-      <c r="L70" s="5"/>
+      <c r="L70" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0657786004825662</v>
+      </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -2465,7 +2860,10 @@
       <c r="K71" s="2">
         <v>3</v>
       </c>
-      <c r="L71" s="5"/>
+      <c r="L71" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28021461278627857</v>
+      </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -2489,7 +2887,10 @@
       <c r="K72" s="2">
         <v>4</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="L72" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9104899180581283</v>
+      </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -2513,7 +2914,10 @@
       <c r="K73" s="2">
         <v>5</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9900806557355324</v>
+      </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
@@ -2600,7 +3004,9 @@
       <c r="C77" s="2">
         <v>1</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -2611,7 +3017,9 @@
       <c r="K77" s="2">
         <v>1</v>
       </c>
-      <c r="L77" s="5"/>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
@@ -2624,7 +3032,10 @@
       <c r="C78" s="2">
         <v>2</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5">
+        <f ca="1">RAND()*-6+4</f>
+        <v>2.7707302905828817</v>
+      </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -2635,7 +3046,10 @@
       <c r="K78" s="2">
         <v>2</v>
       </c>
-      <c r="L78" s="5"/>
+      <c r="L78" s="5">
+        <f t="shared" ref="L78:L91" ca="1" si="4">RAND()*-6+4</f>
+        <v>2.2834216926355317</v>
+      </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
@@ -2648,7 +3062,10 @@
       <c r="C79" s="2">
         <v>3</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5">
+        <f t="shared" ref="D79:D91" ca="1" si="5">RAND()*-6+4</f>
+        <v>1.3282221155678515</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -2659,7 +3076,10 @@
       <c r="K79" s="2">
         <v>3</v>
       </c>
-      <c r="L79" s="5"/>
+      <c r="L79" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3222672978446459</v>
+      </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
@@ -2672,7 +3092,10 @@
       <c r="C80" s="2">
         <v>4</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.3130889427149839E-2</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2683,7 +3106,10 @@
       <c r="K80" s="2">
         <v>4</v>
       </c>
-      <c r="L80" s="5"/>
+      <c r="L80" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0953991470704496</v>
+      </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -2696,7 +3122,10 @@
       <c r="C81" s="2">
         <v>5</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.41243373781762571</v>
+      </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2707,7 +3136,10 @@
       <c r="K81" s="2">
         <v>5</v>
       </c>
-      <c r="L81" s="5"/>
+      <c r="L81" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9838811190613113</v>
+      </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
@@ -2720,7 +3152,10 @@
       <c r="C82" s="2">
         <v>1</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6328747010060556</v>
+      </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2731,7 +3166,10 @@
       <c r="K82" s="2">
         <v>1</v>
       </c>
-      <c r="L82" s="5"/>
+      <c r="L82" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12324886768329613</v>
+      </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
@@ -2744,7 +3182,10 @@
       <c r="C83" s="2">
         <v>2</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5387882445736381</v>
+      </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2755,7 +3196,10 @@
       <c r="K83" s="2">
         <v>2</v>
       </c>
-      <c r="L83" s="5"/>
+      <c r="L83" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.78772368483741317</v>
+      </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -2768,7 +3212,10 @@
       <c r="C84" s="2">
         <v>3</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9124663214049868</v>
+      </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2779,7 +3226,10 @@
       <c r="K84" s="2">
         <v>3</v>
       </c>
-      <c r="L84" s="5"/>
+      <c r="L84" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.33995524730993143</v>
+      </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -2792,7 +3242,10 @@
       <c r="C85" s="2">
         <v>4</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9000648096169974</v>
+      </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2803,7 +3256,10 @@
       <c r="K85" s="2">
         <v>4</v>
       </c>
-      <c r="L85" s="5"/>
+      <c r="L85" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1637826652224019</v>
+      </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
@@ -2816,7 +3272,10 @@
       <c r="C86" s="2">
         <v>5</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1390740166770437</v>
+      </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -2827,7 +3286,10 @@
       <c r="K86" s="2">
         <v>5</v>
       </c>
-      <c r="L86" s="5"/>
+      <c r="L86" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.1688605069522957</v>
+      </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
@@ -2840,7 +3302,10 @@
       <c r="C87" s="2">
         <v>1</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3406364205684391</v>
+      </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -2851,7 +3316,10 @@
       <c r="K87" s="2">
         <v>1</v>
       </c>
-      <c r="L87" s="5"/>
+      <c r="L87" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0008801714247486</v>
+      </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
@@ -2864,7 +3332,10 @@
       <c r="C88" s="2">
         <v>2</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1034141791284173</v>
+      </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2875,7 +3346,10 @@
       <c r="K88" s="2">
         <v>2</v>
       </c>
-      <c r="L88" s="5"/>
+      <c r="L88" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.56775343444792181</v>
+      </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
@@ -2888,7 +3362,10 @@
       <c r="C89" s="2">
         <v>3</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.44563062953444721</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -2899,7 +3376,10 @@
       <c r="K89" s="2">
         <v>3</v>
       </c>
-      <c r="L89" s="5"/>
+      <c r="L89" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.5689398044197507</v>
+      </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
@@ -2912,7 +3392,10 @@
       <c r="C90" s="2">
         <v>4</v>
       </c>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2405504069276891</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2923,7 +3406,10 @@
       <c r="K90" s="2">
         <v>4</v>
       </c>
-      <c r="L90" s="5"/>
+      <c r="L90" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9835749380675125E-2</v>
+      </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
@@ -2936,7 +3422,10 @@
       <c r="C91" s="2">
         <v>5</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.1030593081068014</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -2947,7 +3436,10 @@
       <c r="K91" s="2">
         <v>5</v>
       </c>
-      <c r="L91" s="5"/>
+      <c r="L91" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.34159642945537527</v>
+      </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
@@ -2967,5 +3459,6 @@
     <mergeCell ref="J39:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>